--- a/all_distances.xlsx
+++ b/all_distances.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t xml:space="preserve">E1</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -79,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,6 +97,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,10 +175,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="13" sqref="B2 C3 D4 E5 F6 G7 H8 I9 J10 K11 L12 M13 N14 O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -230,9 +229,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="n">
         <v>10</v>
       </c>
@@ -278,9 +275,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="n">
         <v>8.5</v>
       </c>
@@ -324,9 +319,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="n">
         <v>6.3</v>
       </c>
@@ -368,9 +361,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="n">
         <v>12</v>
       </c>
@@ -410,9 +401,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="n">
         <v>3</v>
       </c>
@@ -450,9 +439,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="n">
         <v>3.3</v>
       </c>
@@ -488,9 +475,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="n">
         <v>20</v>
       </c>
@@ -524,9 +509,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="n">
         <v>8.2</v>
       </c>
@@ -558,9 +541,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="n">
         <v>13.5</v>
       </c>
@@ -590,9 +571,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="n">
         <v>17.6</v>
       </c>
@@ -620,9 +599,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="n">
         <v>14.2</v>
       </c>
@@ -648,9 +625,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2" t="n">
         <v>28.8</v>
       </c>
@@ -674,9 +649,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2" t="n">
         <v>5.1</v>
       </c>
@@ -698,9 +671,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="O15" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
